--- a/Experiments/dimensionality_reduction_metrics/results/compiled_results/M1/DiffRed/Bank.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/compiled_results/M1/DiffRed/Bank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,114 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006966345516345562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01220146782455322</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0003567146545742084</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.819229140002768e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.572818349535268e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.592921699129391e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.485003710057555e-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.146297581189337e-06</v>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.782396432670197e-07</v>
       </c>
     </row>
   </sheetData>
